--- a/biology/Botanique/Héliotrope/Héliotrope.xlsx
+++ b/biology/Botanique/Héliotrope/Héliotrope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9liotrope</t>
+          <t>Héliotrope</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliotropium
 Les héliotropes (genre Heliotropium) sont des plantes appartenant à la famille des Boraginacées, qui doivent leur nom au fait que leurs feuilles se tourneraient vers le soleil. Il en existe environ 250 espèces dans le monde, notamment dans les régions subtropicales. En Europe, on les rencontre surtout en région méditerranéenne. L'espèce la plus répandue est Heliotropium europaeum, l'héliotrope commun ou héliotrope d'Europe. L'héliotrope est également une couleur et un minéral.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9liotrope</t>
+          <t>Héliotrope</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les héliotropes sont citées par Pline l'Ancien, dans plusieurs livres de son Histoire naturelle, publiée vers 77 (il y parle aussi du minéral héliotrope)[2]. Il y explique que, comme le lupin, elles tournent avec le soleil, même par temps couvert, tant elles ont de sympathie pour cet astre. La nuit, elles ferment leur fleur bleue, comme si elles le regrettait[3],[4]. Toujours selon lui, il en existe deux espèces : le tricoccum et l'hélioscope. La première est un antidote contre le venin des serpents et des scorpions selon les dires d'Apollophane et d'Apollodore, parmi d'autres propriétés citées. Tandis qu'il attribue notamment à la seconde des vertus aphrodisiaques[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les héliotropes sont citées par Pline l'Ancien, dans plusieurs livres de son Histoire naturelle, publiée vers 77 (il y parle aussi du minéral héliotrope). Il y explique que, comme le lupin, elles tournent avec le soleil, même par temps couvert, tant elles ont de sympathie pour cet astre. La nuit, elles ferment leur fleur bleue, comme si elles le regrettait,. Toujours selon lui, il en existe deux espèces : le tricoccum et l'hélioscope. La première est un antidote contre le venin des serpents et des scorpions selon les dires d'Apollophane et d'Apollodore, parmi d'autres propriétés citées. Tandis qu'il attribue notamment à la seconde des vertus aphrodisiaques.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9liotrope</t>
+          <t>Héliotrope</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (10 janvier 2014)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (10 janvier 2014) :
 Heliotropium amplexicaule Vahl
 Heliotropium angiospermum Murray
 Heliotropium anomalum Hook. &amp; Arn.
@@ -570,7 +586,7 @@
 Heliotropium texanum I.M. Johnst.
 Heliotropium torreyi I.M. Johnst.
 Heliotropium undulatifolium Turrill
-Selon NCBI  (10 janvier 2014)[6] :
+Selon NCBI  (10 janvier 2014) :
 Heliotropium abbreviatum
 Heliotropium adenogynum
 Heliotropium aegyptiacum
@@ -649,7 +665,7 @@
 Heliotropium verdcourtii
 Heliotropium veronicifolium
 Heliotropium zeylanicum
-Selon The Plant List            (10 janvier 2014)[7] :
+Selon The Plant List            (10 janvier 2014) :
 Heliotropium abbreviatum Rusby
 Heliotropium acutiflorum Kar. &amp; Kir.
 Heliotropium adenogynum I.M. Johnst.
@@ -794,7 +810,7 @@
 Heliotropium veronicifolium Griseb.
 Heliotropium wigginsii I.M. Johnst.
 Heliotropium zeylanicum (Burm.f.) Lam.
-Selon Tropicos                                           (10 janvier 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (10 janvier 2014) (Attention liste brute contenant possiblement des synonymes) :
 Heliotropium abbreviatum Rusby
 Heliotropium acutiflorum Kar. &amp; Kir.
 Heliotropium adenogynum I.M. Johnst.
@@ -1191,10 +1207,45 @@
 Heliotropium xerophilum Cockerell
 Heliotropium xinjiangense Y.L. Liu
 Heliotropium zeylanicum Lam.
-Selon World Register of Marine Species                               (10 janvier 2014)[8] :
+Selon World Register of Marine Species                               (10 janvier 2014) :
 Heliotropium angiospermum Murray, 1770
-Heliotropium curassavicum Linnaeus, 1753
-Quelques espèces de la flore française
+Heliotropium curassavicum Linnaeus, 1753</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Héliotrope</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9liotrope</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Quelques espèces de la flore française</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Heliotropium amplexicaule Vahl
 Heliotropium arborescens L.
 Heliotropium bacciferum Forssk.
@@ -1207,38 +1258,113 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>H%C3%A9liotrope</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Héliotrope</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/H%C3%A9liotrope</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Langage des fleurs
-Dans le langage des fleurs, l'héliotrope symbolise l'attachement[9]. Au moyen âge, l'héliotrope représentait l'inspiration divine. Dans Trois contes Gustave Flaubert fait le choix de cette fleur pour arborer les couloirs du château où vivent Saint Julien l'Hospitalier[10] et ses parents pour annoncer, symboliquement, le destin de Saint Julien. "[...] à tous les étages, dans un pot d'argile peinte, un basilic ou un héliotrope s'épanouissait." Le basilic représentant, quant à lui, la cruauté.
-Calendrier républicain
-L'héliotrope voit son nom attribué au 6e jour du mois de brumaire du calendrier républicain ou révolutionnaire français[11], généralement chaque 27 octobre du calendrier grégorien.
-Divers
-« Melpomène se parfume à l’héliotrope » est :
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, l'héliotrope symbolise l'attachement. Au moyen âge, l'héliotrope représentait l'inspiration divine. Dans Trois contes Gustave Flaubert fait le choix de cette fleur pour arborer les couloirs du château où vivent Saint Julien l'Hospitalier et ses parents pour annoncer, symboliquement, le destin de Saint Julien. "[...] à tous les étages, dans un pot d'argile peinte, un basilic ou un héliotrope s'épanouissait." Le basilic représentant, quant à lui, la cruauté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Héliotrope</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9liotrope</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'héliotrope voit son nom attribué au 6e jour du mois de brumaire du calendrier républicain ou révolutionnaire français, généralement chaque 27 octobre du calendrier grégorien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Héliotrope</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9liotrope</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>« Melpomène se parfume à l’héliotrope » est :
 un « message personnel » donné par la BBC (Radio Londres) dans le cadre de la mythique émission quotidienne Les Français parlent aux Français pour annoncer le passage à Londres de René Massigli (futur commissaire aux Affaires étrangères de la France libre) ;
 un ouvrage de Michel Roger Augeard consacré au quotidien de la Résistance au fil des messages personnels (JC Lattès, 2012).
 À Bruxelles, plus précisément à Schaerbeek, un arrêt de tramway de la ligne 7 porte le nom Héliotrope.</t>
